--- a/APM files/132543401/VR APM Bulk OB Intake form - October 2024 Travelio (142 units).xlsx
+++ b/APM files/132543401/VR APM Bulk OB Intake form - October 2024 Travelio (142 units).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/132543401/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B5766A-2C82-3E44-B4D8-E90F649C75E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA869FB7-4DD5-F847-8EDD-917F082DE8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16820" yWindow="7900" windowWidth="30380" windowHeight="18020" activeTab="1" xr2:uid="{5ACC1F44-282C-4223-A1C1-EFBFFE18FF03}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6760" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6902" uniqueCount="830">
   <si>
     <t>Welcome to the Expedia Group!</t>
   </si>
@@ -3159,6 +3159,432 @@
   </si>
   <si>
     <t>King Bed (180x200) x1,Queen Bed (160x200) x1</t>
+  </si>
+  <si>
+    <t>109518122</t>
+  </si>
+  <si>
+    <t>109518123</t>
+  </si>
+  <si>
+    <t>109518124</t>
+  </si>
+  <si>
+    <t>109518125</t>
+  </si>
+  <si>
+    <t>109518126</t>
+  </si>
+  <si>
+    <t>109518127</t>
+  </si>
+  <si>
+    <t>109518128</t>
+  </si>
+  <si>
+    <t>109518129</t>
+  </si>
+  <si>
+    <t>109518130</t>
+  </si>
+  <si>
+    <t>109518131</t>
+  </si>
+  <si>
+    <t>109518133</t>
+  </si>
+  <si>
+    <t>109518135</t>
+  </si>
+  <si>
+    <t>109518137</t>
+  </si>
+  <si>
+    <t>109518138</t>
+  </si>
+  <si>
+    <t>109518139</t>
+  </si>
+  <si>
+    <t>109518140</t>
+  </si>
+  <si>
+    <t>109518141</t>
+  </si>
+  <si>
+    <t>109518142</t>
+  </si>
+  <si>
+    <t>109518143</t>
+  </si>
+  <si>
+    <t>109518144</t>
+  </si>
+  <si>
+    <t>109518145</t>
+  </si>
+  <si>
+    <t>109518146</t>
+  </si>
+  <si>
+    <t>109518147</t>
+  </si>
+  <si>
+    <t>109518148</t>
+  </si>
+  <si>
+    <t>109518149</t>
+  </si>
+  <si>
+    <t>109518150</t>
+  </si>
+  <si>
+    <t>109518151</t>
+  </si>
+  <si>
+    <t>109518152</t>
+  </si>
+  <si>
+    <t>109518153</t>
+  </si>
+  <si>
+    <t>109518154</t>
+  </si>
+  <si>
+    <t>109518155</t>
+  </si>
+  <si>
+    <t>109518156</t>
+  </si>
+  <si>
+    <t>109518157</t>
+  </si>
+  <si>
+    <t>109518158</t>
+  </si>
+  <si>
+    <t>109518159</t>
+  </si>
+  <si>
+    <t>109518160</t>
+  </si>
+  <si>
+    <t>109518161</t>
+  </si>
+  <si>
+    <t>109518162</t>
+  </si>
+  <si>
+    <t>109518163</t>
+  </si>
+  <si>
+    <t>109518164</t>
+  </si>
+  <si>
+    <t>109518165</t>
+  </si>
+  <si>
+    <t>109518166</t>
+  </si>
+  <si>
+    <t>109518168</t>
+  </si>
+  <si>
+    <t>109518169</t>
+  </si>
+  <si>
+    <t>109518170</t>
+  </si>
+  <si>
+    <t>109518171</t>
+  </si>
+  <si>
+    <t>109518172</t>
+  </si>
+  <si>
+    <t>109518173</t>
+  </si>
+  <si>
+    <t>109518174</t>
+  </si>
+  <si>
+    <t>109518175</t>
+  </si>
+  <si>
+    <t>109518176</t>
+  </si>
+  <si>
+    <t>109518177</t>
+  </si>
+  <si>
+    <t>109518178</t>
+  </si>
+  <si>
+    <t>109518179</t>
+  </si>
+  <si>
+    <t>109518180</t>
+  </si>
+  <si>
+    <t>109518181</t>
+  </si>
+  <si>
+    <t>109518182</t>
+  </si>
+  <si>
+    <t>109518183</t>
+  </si>
+  <si>
+    <t>109518184</t>
+  </si>
+  <si>
+    <t>109518185</t>
+  </si>
+  <si>
+    <t>109518186</t>
+  </si>
+  <si>
+    <t>109518187</t>
+  </si>
+  <si>
+    <t>109518188</t>
+  </si>
+  <si>
+    <t>109518189</t>
+  </si>
+  <si>
+    <t>109518190</t>
+  </si>
+  <si>
+    <t>109518191</t>
+  </si>
+  <si>
+    <t>109518192</t>
+  </si>
+  <si>
+    <t>109518193</t>
+  </si>
+  <si>
+    <t>109518194</t>
+  </si>
+  <si>
+    <t>109518195</t>
+  </si>
+  <si>
+    <t>109518196</t>
+  </si>
+  <si>
+    <t>109518197</t>
+  </si>
+  <si>
+    <t>109518198</t>
+  </si>
+  <si>
+    <t>109518199</t>
+  </si>
+  <si>
+    <t>109518200</t>
+  </si>
+  <si>
+    <t>109518201</t>
+  </si>
+  <si>
+    <t>109518202</t>
+  </si>
+  <si>
+    <t>109518203</t>
+  </si>
+  <si>
+    <t>109518204</t>
+  </si>
+  <si>
+    <t>109518205</t>
+  </si>
+  <si>
+    <t>109518206</t>
+  </si>
+  <si>
+    <t>109518207</t>
+  </si>
+  <si>
+    <t>109518208</t>
+  </si>
+  <si>
+    <t>109518209</t>
+  </si>
+  <si>
+    <t>109518210</t>
+  </si>
+  <si>
+    <t>109518211</t>
+  </si>
+  <si>
+    <t>109518212</t>
+  </si>
+  <si>
+    <t>109518213</t>
+  </si>
+  <si>
+    <t>109518214</t>
+  </si>
+  <si>
+    <t>109518215</t>
+  </si>
+  <si>
+    <t>109518216</t>
+  </si>
+  <si>
+    <t>109518217</t>
+  </si>
+  <si>
+    <t>109518218</t>
+  </si>
+  <si>
+    <t>109518219</t>
+  </si>
+  <si>
+    <t>109518220</t>
+  </si>
+  <si>
+    <t>109518221</t>
+  </si>
+  <si>
+    <t>109518222</t>
+  </si>
+  <si>
+    <t>109518223</t>
+  </si>
+  <si>
+    <t>109518224</t>
+  </si>
+  <si>
+    <t>109518225</t>
+  </si>
+  <si>
+    <t>109518226</t>
+  </si>
+  <si>
+    <t>109518227</t>
+  </si>
+  <si>
+    <t>109518228</t>
+  </si>
+  <si>
+    <t>109518229</t>
+  </si>
+  <si>
+    <t>109518230</t>
+  </si>
+  <si>
+    <t>109518231</t>
+  </si>
+  <si>
+    <t>109518232</t>
+  </si>
+  <si>
+    <t>109518233</t>
+  </si>
+  <si>
+    <t>109518234</t>
+  </si>
+  <si>
+    <t>109518235</t>
+  </si>
+  <si>
+    <t>109518236</t>
+  </si>
+  <si>
+    <t>109518237</t>
+  </si>
+  <si>
+    <t>109518238</t>
+  </si>
+  <si>
+    <t>109518239</t>
+  </si>
+  <si>
+    <t>109518240</t>
+  </si>
+  <si>
+    <t>109518241</t>
+  </si>
+  <si>
+    <t>109518242</t>
+  </si>
+  <si>
+    <t>109518243</t>
+  </si>
+  <si>
+    <t>109518244</t>
+  </si>
+  <si>
+    <t>109518245</t>
+  </si>
+  <si>
+    <t>109518246</t>
+  </si>
+  <si>
+    <t>109518247</t>
+  </si>
+  <si>
+    <t>109518248</t>
+  </si>
+  <si>
+    <t>109518249</t>
+  </si>
+  <si>
+    <t>109518250</t>
+  </si>
+  <si>
+    <t>109518251</t>
+  </si>
+  <si>
+    <t>109518252</t>
+  </si>
+  <si>
+    <t>109518253</t>
+  </si>
+  <si>
+    <t>109518254</t>
+  </si>
+  <si>
+    <t>109518256</t>
+  </si>
+  <si>
+    <t>109518258</t>
+  </si>
+  <si>
+    <t>109518259</t>
+  </si>
+  <si>
+    <t>109518260</t>
+  </si>
+  <si>
+    <t>109518261</t>
+  </si>
+  <si>
+    <t>109518262</t>
+  </si>
+  <si>
+    <t>109518263</t>
+  </si>
+  <si>
+    <t>109518264</t>
+  </si>
+  <si>
+    <t>109518265</t>
+  </si>
+  <si>
+    <t>109518266</t>
+  </si>
+  <si>
+    <t>109518267</t>
+  </si>
+  <si>
+    <t>109518268</t>
+  </si>
+  <si>
+    <t>109518269</t>
   </si>
 </sst>
 </file>
@@ -4807,6 +5233,16 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <color theme="2"/>
@@ -4822,16 +5258,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -4893,16 +5319,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <color theme="2"/>
@@ -4920,6 +5336,16 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -5045,6 +5471,26 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFC00000"/>
@@ -5067,26 +5513,6 @@
           <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="2"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -6666,9 +7092,9 @@
   <dimension ref="A1:BH765"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="C140" sqref="C140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -7051,7 +7477,9 @@
       </c>
     </row>
     <row r="3" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="126"/>
+      <c r="A3" t="s">
+        <v>688</v>
+      </c>
       <c r="B3" s="147" t="s">
         <v>238</v>
       </c>
@@ -7189,7 +7617,9 @@
       </c>
     </row>
     <row r="4" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="126"/>
+      <c r="A4" t="s">
+        <v>689</v>
+      </c>
       <c r="B4" s="147" t="s">
         <v>239</v>
       </c>
@@ -7327,7 +7757,9 @@
       </c>
     </row>
     <row r="5" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="126"/>
+      <c r="A5" t="s">
+        <v>690</v>
+      </c>
       <c r="B5" s="147" t="s">
         <v>240</v>
       </c>
@@ -7465,7 +7897,9 @@
       </c>
     </row>
     <row r="6" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="126"/>
+      <c r="A6" t="s">
+        <v>691</v>
+      </c>
       <c r="B6" s="147" t="s">
         <v>241</v>
       </c>
@@ -7603,7 +8037,9 @@
       </c>
     </row>
     <row r="7" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="126"/>
+      <c r="A7" t="s">
+        <v>692</v>
+      </c>
       <c r="B7" s="147" t="s">
         <v>242</v>
       </c>
@@ -7741,7 +8177,9 @@
       </c>
     </row>
     <row r="8" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="126"/>
+      <c r="A8" t="s">
+        <v>693</v>
+      </c>
       <c r="B8" s="147" t="s">
         <v>243</v>
       </c>
@@ -7879,7 +8317,9 @@
       </c>
     </row>
     <row r="9" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="126"/>
+      <c r="A9" t="s">
+        <v>694</v>
+      </c>
       <c r="B9" s="147" t="s">
         <v>244</v>
       </c>
@@ -8017,7 +8457,9 @@
       </c>
     </row>
     <row r="10" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="126"/>
+      <c r="A10" t="s">
+        <v>695</v>
+      </c>
       <c r="B10" s="147" t="s">
         <v>245</v>
       </c>
@@ -8155,7 +8597,9 @@
       </c>
     </row>
     <row r="11" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="126"/>
+      <c r="A11" t="s">
+        <v>696</v>
+      </c>
       <c r="B11" s="147" t="s">
         <v>246</v>
       </c>
@@ -8293,7 +8737,9 @@
       </c>
     </row>
     <row r="12" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="126"/>
+      <c r="A12" t="s">
+        <v>697</v>
+      </c>
       <c r="B12" s="147" t="s">
         <v>247</v>
       </c>
@@ -8431,7 +8877,9 @@
       </c>
     </row>
     <row r="13" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="126"/>
+      <c r="A13" t="s">
+        <v>698</v>
+      </c>
       <c r="B13" s="147" t="s">
         <v>248</v>
       </c>
@@ -8569,7 +9017,9 @@
       </c>
     </row>
     <row r="14" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="126"/>
+      <c r="A14" t="s">
+        <v>699</v>
+      </c>
       <c r="B14" s="147" t="s">
         <v>249</v>
       </c>
@@ -8707,7 +9157,9 @@
       </c>
     </row>
     <row r="15" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="126"/>
+      <c r="A15" t="s">
+        <v>700</v>
+      </c>
       <c r="B15" s="147" t="s">
         <v>250</v>
       </c>
@@ -8845,7 +9297,9 @@
       </c>
     </row>
     <row r="16" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="126"/>
+      <c r="A16" t="s">
+        <v>701</v>
+      </c>
       <c r="B16" s="147" t="s">
         <v>251</v>
       </c>
@@ -8983,7 +9437,9 @@
       </c>
     </row>
     <row r="17" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="126"/>
+      <c r="A17" t="s">
+        <v>702</v>
+      </c>
       <c r="B17" s="147" t="s">
         <v>252</v>
       </c>
@@ -9121,7 +9577,9 @@
       </c>
     </row>
     <row r="18" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="126"/>
+      <c r="A18" t="s">
+        <v>703</v>
+      </c>
       <c r="B18" s="147" t="s">
         <v>253</v>
       </c>
@@ -9259,7 +9717,9 @@
       </c>
     </row>
     <row r="19" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="126"/>
+      <c r="A19" t="s">
+        <v>704</v>
+      </c>
       <c r="B19" s="147" t="s">
         <v>254</v>
       </c>
@@ -9397,7 +9857,9 @@
       </c>
     </row>
     <row r="20" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="126"/>
+      <c r="A20" t="s">
+        <v>705</v>
+      </c>
       <c r="B20" s="147" t="s">
         <v>255</v>
       </c>
@@ -9535,7 +9997,9 @@
       </c>
     </row>
     <row r="21" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="126"/>
+      <c r="A21" t="s">
+        <v>706</v>
+      </c>
       <c r="B21" s="147" t="s">
         <v>256</v>
       </c>
@@ -9673,7 +10137,9 @@
       </c>
     </row>
     <row r="22" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="126"/>
+      <c r="A22" t="s">
+        <v>707</v>
+      </c>
       <c r="B22" s="147" t="s">
         <v>257</v>
       </c>
@@ -9811,7 +10277,9 @@
       </c>
     </row>
     <row r="23" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="126"/>
+      <c r="A23" t="s">
+        <v>708</v>
+      </c>
       <c r="B23" s="147" t="s">
         <v>258</v>
       </c>
@@ -9949,7 +10417,9 @@
       </c>
     </row>
     <row r="24" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="126"/>
+      <c r="A24" t="s">
+        <v>709</v>
+      </c>
       <c r="B24" s="147" t="s">
         <v>259</v>
       </c>
@@ -10087,7 +10557,9 @@
       </c>
     </row>
     <row r="25" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="126"/>
+      <c r="A25" t="s">
+        <v>710</v>
+      </c>
       <c r="B25" s="147" t="s">
         <v>260</v>
       </c>
@@ -10225,7 +10697,9 @@
       </c>
     </row>
     <row r="26" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="126"/>
+      <c r="A26" t="s">
+        <v>711</v>
+      </c>
       <c r="B26" s="147" t="s">
         <v>261</v>
       </c>
@@ -10363,7 +10837,9 @@
       </c>
     </row>
     <row r="27" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="126"/>
+      <c r="A27" t="s">
+        <v>712</v>
+      </c>
       <c r="B27" s="147" t="s">
         <v>262</v>
       </c>
@@ -10501,7 +10977,9 @@
       </c>
     </row>
     <row r="28" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="126"/>
+      <c r="A28" t="s">
+        <v>713</v>
+      </c>
       <c r="B28" s="147" t="s">
         <v>263</v>
       </c>
@@ -10639,7 +11117,9 @@
       </c>
     </row>
     <row r="29" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="126"/>
+      <c r="A29" t="s">
+        <v>714</v>
+      </c>
       <c r="B29" s="147" t="s">
         <v>264</v>
       </c>
@@ -10777,7 +11257,9 @@
       </c>
     </row>
     <row r="30" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="126"/>
+      <c r="A30" t="s">
+        <v>715</v>
+      </c>
       <c r="B30" s="147" t="s">
         <v>265</v>
       </c>
@@ -10915,7 +11397,9 @@
       </c>
     </row>
     <row r="31" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="126"/>
+      <c r="A31" t="s">
+        <v>716</v>
+      </c>
       <c r="B31" s="147" t="s">
         <v>266</v>
       </c>
@@ -11053,7 +11537,9 @@
       </c>
     </row>
     <row r="32" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="126"/>
+      <c r="A32" t="s">
+        <v>717</v>
+      </c>
       <c r="B32" s="147" t="s">
         <v>267</v>
       </c>
@@ -11191,7 +11677,9 @@
       </c>
     </row>
     <row r="33" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="126"/>
+      <c r="A33" t="s">
+        <v>718</v>
+      </c>
       <c r="B33" s="147" t="s">
         <v>268</v>
       </c>
@@ -11329,7 +11817,9 @@
       </c>
     </row>
     <row r="34" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="126"/>
+      <c r="A34" t="s">
+        <v>719</v>
+      </c>
       <c r="B34" s="147" t="s">
         <v>269</v>
       </c>
@@ -11467,7 +11957,9 @@
       </c>
     </row>
     <row r="35" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="126"/>
+      <c r="A35" t="s">
+        <v>720</v>
+      </c>
       <c r="B35" s="147" t="s">
         <v>270</v>
       </c>
@@ -11605,7 +12097,9 @@
       </c>
     </row>
     <row r="36" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="126"/>
+      <c r="A36" t="s">
+        <v>721</v>
+      </c>
       <c r="B36" s="147" t="s">
         <v>271</v>
       </c>
@@ -11743,7 +12237,9 @@
       </c>
     </row>
     <row r="37" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="126"/>
+      <c r="A37" t="s">
+        <v>722</v>
+      </c>
       <c r="B37" s="147" t="s">
         <v>272</v>
       </c>
@@ -11881,7 +12377,9 @@
       </c>
     </row>
     <row r="38" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="126"/>
+      <c r="A38" t="s">
+        <v>723</v>
+      </c>
       <c r="B38" s="147" t="s">
         <v>273</v>
       </c>
@@ -12019,7 +12517,9 @@
       </c>
     </row>
     <row r="39" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="126"/>
+      <c r="A39" t="s">
+        <v>724</v>
+      </c>
       <c r="B39" s="147" t="s">
         <v>274</v>
       </c>
@@ -12157,7 +12657,9 @@
       </c>
     </row>
     <row r="40" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="126"/>
+      <c r="A40" t="s">
+        <v>725</v>
+      </c>
       <c r="B40" s="147" t="s">
         <v>275</v>
       </c>
@@ -12295,7 +12797,9 @@
       </c>
     </row>
     <row r="41" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="126"/>
+      <c r="A41" t="s">
+        <v>726</v>
+      </c>
       <c r="B41" s="147" t="s">
         <v>276</v>
       </c>
@@ -12433,7 +12937,9 @@
       </c>
     </row>
     <row r="42" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="126"/>
+      <c r="A42" t="s">
+        <v>727</v>
+      </c>
       <c r="B42" s="147" t="s">
         <v>277</v>
       </c>
@@ -12571,7 +13077,9 @@
       </c>
     </row>
     <row r="43" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="126"/>
+      <c r="A43" t="s">
+        <v>728</v>
+      </c>
       <c r="B43" s="147" t="s">
         <v>278</v>
       </c>
@@ -12709,7 +13217,9 @@
       </c>
     </row>
     <row r="44" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="126"/>
+      <c r="A44" t="s">
+        <v>729</v>
+      </c>
       <c r="B44" s="147" t="s">
         <v>279</v>
       </c>
@@ -12847,7 +13357,9 @@
       </c>
     </row>
     <row r="45" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="126"/>
+      <c r="A45" t="s">
+        <v>730</v>
+      </c>
       <c r="B45" s="147" t="s">
         <v>280</v>
       </c>
@@ -12985,7 +13497,9 @@
       </c>
     </row>
     <row r="46" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="126"/>
+      <c r="A46" t="s">
+        <v>731</v>
+      </c>
       <c r="B46" s="147" t="s">
         <v>281</v>
       </c>
@@ -13123,7 +13637,9 @@
       </c>
     </row>
     <row r="47" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="126"/>
+      <c r="A47" t="s">
+        <v>732</v>
+      </c>
       <c r="B47" s="147" t="s">
         <v>282</v>
       </c>
@@ -13261,7 +13777,9 @@
       </c>
     </row>
     <row r="48" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="126"/>
+      <c r="A48" t="s">
+        <v>733</v>
+      </c>
       <c r="B48" s="147" t="s">
         <v>283</v>
       </c>
@@ -13399,7 +13917,9 @@
       </c>
     </row>
     <row r="49" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="126"/>
+      <c r="A49" t="s">
+        <v>734</v>
+      </c>
       <c r="B49" s="147" t="s">
         <v>284</v>
       </c>
@@ -13537,7 +14057,9 @@
       </c>
     </row>
     <row r="50" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="126"/>
+      <c r="A50" t="s">
+        <v>735</v>
+      </c>
       <c r="B50" s="147" t="s">
         <v>285</v>
       </c>
@@ -13673,7 +14195,9 @@
       </c>
     </row>
     <row r="51" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="126"/>
+      <c r="A51" t="s">
+        <v>736</v>
+      </c>
       <c r="B51" s="147" t="s">
         <v>286</v>
       </c>
@@ -13811,7 +14335,9 @@
       </c>
     </row>
     <row r="52" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="126"/>
+      <c r="A52" t="s">
+        <v>737</v>
+      </c>
       <c r="B52" s="147" t="s">
         <v>287</v>
       </c>
@@ -13949,7 +14475,9 @@
       </c>
     </row>
     <row r="53" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="126"/>
+      <c r="A53" t="s">
+        <v>738</v>
+      </c>
       <c r="B53" s="147" t="s">
         <v>288</v>
       </c>
@@ -14085,7 +14613,9 @@
       </c>
     </row>
     <row r="54" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="126"/>
+      <c r="A54" t="s">
+        <v>739</v>
+      </c>
       <c r="B54" s="147" t="s">
         <v>289</v>
       </c>
@@ -14223,7 +14753,9 @@
       </c>
     </row>
     <row r="55" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="126"/>
+      <c r="A55" t="s">
+        <v>740</v>
+      </c>
       <c r="B55" s="147" t="s">
         <v>290</v>
       </c>
@@ -14361,7 +14893,9 @@
       </c>
     </row>
     <row r="56" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="126"/>
+      <c r="A56" t="s">
+        <v>741</v>
+      </c>
       <c r="B56" s="147" t="s">
         <v>291</v>
       </c>
@@ -14499,7 +15033,9 @@
       </c>
     </row>
     <row r="57" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="126"/>
+      <c r="A57" t="s">
+        <v>742</v>
+      </c>
       <c r="B57" s="147" t="s">
         <v>292</v>
       </c>
@@ -14637,7 +15173,9 @@
       </c>
     </row>
     <row r="58" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="126"/>
+      <c r="A58" t="s">
+        <v>743</v>
+      </c>
       <c r="B58" s="147" t="s">
         <v>293</v>
       </c>
@@ -14775,7 +15313,9 @@
       </c>
     </row>
     <row r="59" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="126"/>
+      <c r="A59" t="s">
+        <v>744</v>
+      </c>
       <c r="B59" s="147" t="s">
         <v>294</v>
       </c>
@@ -14913,7 +15453,9 @@
       </c>
     </row>
     <row r="60" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="126"/>
+      <c r="A60" t="s">
+        <v>745</v>
+      </c>
       <c r="B60" s="147" t="s">
         <v>295</v>
       </c>
@@ -15051,7 +15593,9 @@
       </c>
     </row>
     <row r="61" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="126"/>
+      <c r="A61" t="s">
+        <v>746</v>
+      </c>
       <c r="B61" s="147" t="s">
         <v>296</v>
       </c>
@@ -15189,7 +15733,9 @@
       </c>
     </row>
     <row r="62" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="126"/>
+      <c r="A62" t="s">
+        <v>747</v>
+      </c>
       <c r="B62" s="147" t="s">
         <v>297</v>
       </c>
@@ -15327,7 +15873,9 @@
       </c>
     </row>
     <row r="63" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="126"/>
+      <c r="A63" t="s">
+        <v>748</v>
+      </c>
       <c r="B63" s="147" t="s">
         <v>298</v>
       </c>
@@ -15465,7 +16013,9 @@
       </c>
     </row>
     <row r="64" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="126"/>
+      <c r="A64" t="s">
+        <v>749</v>
+      </c>
       <c r="B64" s="147" t="s">
         <v>299</v>
       </c>
@@ -15603,7 +16153,9 @@
       </c>
     </row>
     <row r="65" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="126"/>
+      <c r="A65" t="s">
+        <v>750</v>
+      </c>
       <c r="B65" s="147" t="s">
         <v>300</v>
       </c>
@@ -15741,7 +16293,9 @@
       </c>
     </row>
     <row r="66" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="126"/>
+      <c r="A66" t="s">
+        <v>751</v>
+      </c>
       <c r="B66" s="147" t="s">
         <v>301</v>
       </c>
@@ -15879,7 +16433,9 @@
       </c>
     </row>
     <row r="67" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="126"/>
+      <c r="A67" t="s">
+        <v>752</v>
+      </c>
       <c r="B67" s="147" t="s">
         <v>302</v>
       </c>
@@ -16017,7 +16573,9 @@
       </c>
     </row>
     <row r="68" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="126"/>
+      <c r="A68" t="s">
+        <v>753</v>
+      </c>
       <c r="B68" s="147" t="s">
         <v>303</v>
       </c>
@@ -16153,7 +16711,9 @@
       </c>
     </row>
     <row r="69" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="126"/>
+      <c r="A69" t="s">
+        <v>754</v>
+      </c>
       <c r="B69" s="147" t="s">
         <v>304</v>
       </c>
@@ -16291,7 +16851,9 @@
       </c>
     </row>
     <row r="70" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="126"/>
+      <c r="A70" t="s">
+        <v>755</v>
+      </c>
       <c r="B70" s="147" t="s">
         <v>305</v>
       </c>
@@ -16427,7 +16989,9 @@
       </c>
     </row>
     <row r="71" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="126"/>
+      <c r="A71" t="s">
+        <v>756</v>
+      </c>
       <c r="B71" s="147" t="s">
         <v>306</v>
       </c>
@@ -16565,7 +17129,9 @@
       </c>
     </row>
     <row r="72" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="126"/>
+      <c r="A72" t="s">
+        <v>757</v>
+      </c>
       <c r="B72" s="147" t="s">
         <v>307</v>
       </c>
@@ -16703,7 +17269,9 @@
       </c>
     </row>
     <row r="73" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="126"/>
+      <c r="A73" t="s">
+        <v>758</v>
+      </c>
       <c r="B73" s="147" t="s">
         <v>308</v>
       </c>
@@ -16841,7 +17409,9 @@
       </c>
     </row>
     <row r="74" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="126"/>
+      <c r="A74" t="s">
+        <v>759</v>
+      </c>
       <c r="B74" s="147" t="s">
         <v>309</v>
       </c>
@@ -16979,7 +17549,9 @@
       </c>
     </row>
     <row r="75" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="126"/>
+      <c r="A75" t="s">
+        <v>760</v>
+      </c>
       <c r="B75" s="147" t="s">
         <v>310</v>
       </c>
@@ -17117,7 +17689,9 @@
       </c>
     </row>
     <row r="76" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="126"/>
+      <c r="A76" t="s">
+        <v>761</v>
+      </c>
       <c r="B76" s="147" t="s">
         <v>311</v>
       </c>
@@ -17255,7 +17829,9 @@
       </c>
     </row>
     <row r="77" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="126"/>
+      <c r="A77" t="s">
+        <v>762</v>
+      </c>
       <c r="B77" s="147" t="s">
         <v>312</v>
       </c>
@@ -17393,7 +17969,9 @@
       </c>
     </row>
     <row r="78" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="126"/>
+      <c r="A78" t="s">
+        <v>763</v>
+      </c>
       <c r="B78" s="147" t="s">
         <v>313</v>
       </c>
@@ -17531,7 +18109,9 @@
       </c>
     </row>
     <row r="79" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="126"/>
+      <c r="A79" t="s">
+        <v>764</v>
+      </c>
       <c r="B79" s="147" t="s">
         <v>314</v>
       </c>
@@ -17669,7 +18249,9 @@
       </c>
     </row>
     <row r="80" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="126"/>
+      <c r="A80" t="s">
+        <v>765</v>
+      </c>
       <c r="B80" s="147" t="s">
         <v>315</v>
       </c>
@@ -17807,7 +18389,9 @@
       </c>
     </row>
     <row r="81" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="126"/>
+      <c r="A81" t="s">
+        <v>766</v>
+      </c>
       <c r="B81" s="147" t="s">
         <v>316</v>
       </c>
@@ -17945,7 +18529,9 @@
       </c>
     </row>
     <row r="82" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="126"/>
+      <c r="A82" t="s">
+        <v>767</v>
+      </c>
       <c r="B82" s="147" t="s">
         <v>317</v>
       </c>
@@ -18083,7 +18669,9 @@
       </c>
     </row>
     <row r="83" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="126"/>
+      <c r="A83" t="s">
+        <v>768</v>
+      </c>
       <c r="B83" s="147" t="s">
         <v>318</v>
       </c>
@@ -18221,7 +18809,9 @@
       </c>
     </row>
     <row r="84" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="126"/>
+      <c r="A84" t="s">
+        <v>769</v>
+      </c>
       <c r="B84" s="147" t="s">
         <v>319</v>
       </c>
@@ -18359,7 +18949,9 @@
       </c>
     </row>
     <row r="85" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="126"/>
+      <c r="A85" t="s">
+        <v>770</v>
+      </c>
       <c r="B85" s="147" t="s">
         <v>320</v>
       </c>
@@ -18497,7 +19089,9 @@
       </c>
     </row>
     <row r="86" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="126"/>
+      <c r="A86" t="s">
+        <v>771</v>
+      </c>
       <c r="B86" s="147" t="s">
         <v>321</v>
       </c>
@@ -18633,7 +19227,9 @@
       </c>
     </row>
     <row r="87" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="126"/>
+      <c r="A87" t="s">
+        <v>772</v>
+      </c>
       <c r="B87" s="147" t="s">
         <v>322</v>
       </c>
@@ -18771,7 +19367,9 @@
       </c>
     </row>
     <row r="88" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="126"/>
+      <c r="A88" t="s">
+        <v>773</v>
+      </c>
       <c r="B88" s="147" t="s">
         <v>323</v>
       </c>
@@ -18909,7 +19507,9 @@
       </c>
     </row>
     <row r="89" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="126"/>
+      <c r="A89" t="s">
+        <v>774</v>
+      </c>
       <c r="B89" s="147" t="s">
         <v>324</v>
       </c>
@@ -19047,7 +19647,9 @@
       </c>
     </row>
     <row r="90" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="126"/>
+      <c r="A90" t="s">
+        <v>775</v>
+      </c>
       <c r="B90" s="147" t="s">
         <v>325</v>
       </c>
@@ -19185,7 +19787,9 @@
       </c>
     </row>
     <row r="91" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="126"/>
+      <c r="A91" t="s">
+        <v>776</v>
+      </c>
       <c r="B91" s="147" t="s">
         <v>326</v>
       </c>
@@ -19323,7 +19927,9 @@
       </c>
     </row>
     <row r="92" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="126"/>
+      <c r="A92" t="s">
+        <v>777</v>
+      </c>
       <c r="B92" s="147" t="s">
         <v>327</v>
       </c>
@@ -19461,7 +20067,9 @@
       </c>
     </row>
     <row r="93" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="126"/>
+      <c r="A93" t="s">
+        <v>778</v>
+      </c>
       <c r="B93" s="147" t="s">
         <v>328</v>
       </c>
@@ -19599,7 +20207,9 @@
       </c>
     </row>
     <row r="94" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="126"/>
+      <c r="A94" t="s">
+        <v>779</v>
+      </c>
       <c r="B94" s="147" t="s">
         <v>329</v>
       </c>
@@ -19735,7 +20345,9 @@
       </c>
     </row>
     <row r="95" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="126"/>
+      <c r="A95" t="s">
+        <v>780</v>
+      </c>
       <c r="B95" s="147" t="s">
         <v>330</v>
       </c>
@@ -19873,7 +20485,9 @@
       </c>
     </row>
     <row r="96" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="126"/>
+      <c r="A96" t="s">
+        <v>781</v>
+      </c>
       <c r="B96" s="147" t="s">
         <v>331</v>
       </c>
@@ -20011,7 +20625,9 @@
       </c>
     </row>
     <row r="97" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="126"/>
+      <c r="A97" t="s">
+        <v>782</v>
+      </c>
       <c r="B97" s="147" t="s">
         <v>332</v>
       </c>
@@ -20149,7 +20765,9 @@
       </c>
     </row>
     <row r="98" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="126"/>
+      <c r="A98" t="s">
+        <v>783</v>
+      </c>
       <c r="B98" s="147" t="s">
         <v>333</v>
       </c>
@@ -20287,7 +20905,9 @@
       </c>
     </row>
     <row r="99" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="126"/>
+      <c r="A99" t="s">
+        <v>784</v>
+      </c>
       <c r="B99" s="147" t="s">
         <v>334</v>
       </c>
@@ -20425,7 +21045,9 @@
       </c>
     </row>
     <row r="100" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="126"/>
+      <c r="A100" t="s">
+        <v>785</v>
+      </c>
       <c r="B100" s="147" t="s">
         <v>335</v>
       </c>
@@ -20563,7 +21185,9 @@
       </c>
     </row>
     <row r="101" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="126"/>
+      <c r="A101" t="s">
+        <v>786</v>
+      </c>
       <c r="B101" s="147" t="s">
         <v>336</v>
       </c>
@@ -20701,7 +21325,9 @@
       </c>
     </row>
     <row r="102" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="126"/>
+      <c r="A102" t="s">
+        <v>787</v>
+      </c>
       <c r="B102" s="147" t="s">
         <v>337</v>
       </c>
@@ -20837,7 +21463,9 @@
       </c>
     </row>
     <row r="103" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="126"/>
+      <c r="A103" t="s">
+        <v>788</v>
+      </c>
       <c r="B103" s="147" t="s">
         <v>338</v>
       </c>
@@ -20975,7 +21603,9 @@
       </c>
     </row>
     <row r="104" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="126"/>
+      <c r="A104" t="s">
+        <v>789</v>
+      </c>
       <c r="B104" s="147" t="s">
         <v>339</v>
       </c>
@@ -21113,7 +21743,9 @@
       </c>
     </row>
     <row r="105" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="126"/>
+      <c r="A105" t="s">
+        <v>790</v>
+      </c>
       <c r="B105" s="147" t="s">
         <v>340</v>
       </c>
@@ -21251,7 +21883,9 @@
       </c>
     </row>
     <row r="106" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="126"/>
+      <c r="A106" t="s">
+        <v>791</v>
+      </c>
       <c r="B106" s="147" t="s">
         <v>341</v>
       </c>
@@ -21389,7 +22023,9 @@
       </c>
     </row>
     <row r="107" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="126"/>
+      <c r="A107" t="s">
+        <v>792</v>
+      </c>
       <c r="B107" s="147" t="s">
         <v>342</v>
       </c>
@@ -21527,7 +22163,9 @@
       </c>
     </row>
     <row r="108" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="126"/>
+      <c r="A108" t="s">
+        <v>793</v>
+      </c>
       <c r="B108" s="147" t="s">
         <v>343</v>
       </c>
@@ -21663,7 +22301,9 @@
       </c>
     </row>
     <row r="109" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="126"/>
+      <c r="A109" t="s">
+        <v>794</v>
+      </c>
       <c r="B109" s="147" t="s">
         <v>344</v>
       </c>
@@ -21801,7 +22441,9 @@
       </c>
     </row>
     <row r="110" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="126"/>
+      <c r="A110" t="s">
+        <v>795</v>
+      </c>
       <c r="B110" s="147" t="s">
         <v>345</v>
       </c>
@@ -21939,7 +22581,9 @@
       </c>
     </row>
     <row r="111" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="126"/>
+      <c r="A111" t="s">
+        <v>796</v>
+      </c>
       <c r="B111" s="147" t="s">
         <v>346</v>
       </c>
@@ -22077,7 +22721,9 @@
       </c>
     </row>
     <row r="112" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="126"/>
+      <c r="A112" t="s">
+        <v>797</v>
+      </c>
       <c r="B112" s="147" t="s">
         <v>347</v>
       </c>
@@ -22215,7 +22861,9 @@
       </c>
     </row>
     <row r="113" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="126"/>
+      <c r="A113" t="s">
+        <v>798</v>
+      </c>
       <c r="B113" s="147" t="s">
         <v>348</v>
       </c>
@@ -22353,7 +23001,9 @@
       </c>
     </row>
     <row r="114" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="126"/>
+      <c r="A114" t="s">
+        <v>799</v>
+      </c>
       <c r="B114" s="147" t="s">
         <v>349</v>
       </c>
@@ -22491,7 +23141,9 @@
       </c>
     </row>
     <row r="115" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="126"/>
+      <c r="A115" t="s">
+        <v>800</v>
+      </c>
       <c r="B115" s="147" t="s">
         <v>350</v>
       </c>
@@ -22629,7 +23281,9 @@
       </c>
     </row>
     <row r="116" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="126"/>
+      <c r="A116" t="s">
+        <v>801</v>
+      </c>
       <c r="B116" s="147" t="s">
         <v>351</v>
       </c>
@@ -22767,7 +23421,9 @@
       </c>
     </row>
     <row r="117" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="126"/>
+      <c r="A117" t="s">
+        <v>802</v>
+      </c>
       <c r="B117" s="147" t="s">
         <v>352</v>
       </c>
@@ -22905,7 +23561,9 @@
       </c>
     </row>
     <row r="118" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="126"/>
+      <c r="A118" t="s">
+        <v>803</v>
+      </c>
       <c r="B118" s="147" t="s">
         <v>353</v>
       </c>
@@ -23043,7 +23701,9 @@
       </c>
     </row>
     <row r="119" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="126"/>
+      <c r="A119" t="s">
+        <v>804</v>
+      </c>
       <c r="B119" s="147" t="s">
         <v>354</v>
       </c>
@@ -23181,7 +23841,9 @@
       </c>
     </row>
     <row r="120" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="126"/>
+      <c r="A120" t="s">
+        <v>805</v>
+      </c>
       <c r="B120" s="147" t="s">
         <v>355</v>
       </c>
@@ -23317,7 +23979,9 @@
       </c>
     </row>
     <row r="121" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="126"/>
+      <c r="A121" t="s">
+        <v>806</v>
+      </c>
       <c r="B121" s="147" t="s">
         <v>356</v>
       </c>
@@ -23455,7 +24119,9 @@
       </c>
     </row>
     <row r="122" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="126"/>
+      <c r="A122" t="s">
+        <v>807</v>
+      </c>
       <c r="B122" s="147" t="s">
         <v>357</v>
       </c>
@@ -23593,7 +24259,9 @@
       </c>
     </row>
     <row r="123" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="126"/>
+      <c r="A123" t="s">
+        <v>808</v>
+      </c>
       <c r="B123" s="147" t="s">
         <v>358</v>
       </c>
@@ -23729,7 +24397,9 @@
       </c>
     </row>
     <row r="124" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="126"/>
+      <c r="A124" t="s">
+        <v>809</v>
+      </c>
       <c r="B124" s="147" t="s">
         <v>359</v>
       </c>
@@ -23867,7 +24537,9 @@
       </c>
     </row>
     <row r="125" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="126"/>
+      <c r="A125" t="s">
+        <v>810</v>
+      </c>
       <c r="B125" s="147" t="s">
         <v>360</v>
       </c>
@@ -24005,7 +24677,9 @@
       </c>
     </row>
     <row r="126" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="126"/>
+      <c r="A126" t="s">
+        <v>811</v>
+      </c>
       <c r="B126" s="147" t="s">
         <v>361</v>
       </c>
@@ -24143,7 +24817,9 @@
       </c>
     </row>
     <row r="127" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="126"/>
+      <c r="A127" t="s">
+        <v>812</v>
+      </c>
       <c r="B127" s="143" t="s">
         <v>362</v>
       </c>
@@ -24281,7 +24957,9 @@
       </c>
     </row>
     <row r="128" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="126"/>
+      <c r="A128" t="s">
+        <v>813</v>
+      </c>
       <c r="B128" s="143" t="s">
         <v>363</v>
       </c>
@@ -24419,7 +25097,9 @@
       </c>
     </row>
     <row r="129" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="126"/>
+      <c r="A129" t="s">
+        <v>814</v>
+      </c>
       <c r="B129" s="143" t="s">
         <v>364</v>
       </c>
@@ -24557,7 +25237,9 @@
       </c>
     </row>
     <row r="130" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="126"/>
+      <c r="A130" t="s">
+        <v>815</v>
+      </c>
       <c r="B130" s="143" t="s">
         <v>365</v>
       </c>
@@ -24695,7 +25377,9 @@
       </c>
     </row>
     <row r="131" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="126"/>
+      <c r="A131" t="s">
+        <v>816</v>
+      </c>
       <c r="B131" s="143" t="s">
         <v>366</v>
       </c>
@@ -24833,7 +25517,9 @@
       </c>
     </row>
     <row r="132" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="126"/>
+      <c r="A132" t="s">
+        <v>817</v>
+      </c>
       <c r="B132" s="143" t="s">
         <v>367</v>
       </c>
@@ -24971,7 +25657,9 @@
       </c>
     </row>
     <row r="133" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="126"/>
+      <c r="A133" t="s">
+        <v>818</v>
+      </c>
       <c r="B133" s="143" t="s">
         <v>368</v>
       </c>
@@ -25109,7 +25797,9 @@
       </c>
     </row>
     <row r="134" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="126"/>
+      <c r="A134" t="s">
+        <v>819</v>
+      </c>
       <c r="B134" s="143" t="s">
         <v>369</v>
       </c>
@@ -25247,7 +25937,9 @@
       </c>
     </row>
     <row r="135" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="126"/>
+      <c r="A135" t="s">
+        <v>820</v>
+      </c>
       <c r="B135" s="143" t="s">
         <v>370</v>
       </c>
@@ -25385,7 +26077,9 @@
       </c>
     </row>
     <row r="136" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="126"/>
+      <c r="A136" t="s">
+        <v>821</v>
+      </c>
       <c r="B136" s="143" t="s">
         <v>371</v>
       </c>
@@ -25523,7 +26217,9 @@
       </c>
     </row>
     <row r="137" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="126"/>
+      <c r="A137" t="s">
+        <v>822</v>
+      </c>
       <c r="B137" s="143" t="s">
         <v>372</v>
       </c>
@@ -25661,7 +26357,9 @@
       </c>
     </row>
     <row r="138" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="126"/>
+      <c r="A138" t="s">
+        <v>823</v>
+      </c>
       <c r="B138" s="143" t="s">
         <v>373</v>
       </c>
@@ -25799,7 +26497,9 @@
       </c>
     </row>
     <row r="139" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="126"/>
+      <c r="A139" t="s">
+        <v>824</v>
+      </c>
       <c r="B139" s="143" t="s">
         <v>374</v>
       </c>
@@ -25937,7 +26637,9 @@
       </c>
     </row>
     <row r="140" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="126"/>
+      <c r="A140" t="s">
+        <v>825</v>
+      </c>
       <c r="B140" s="143" t="s">
         <v>375</v>
       </c>
@@ -26073,7 +26775,9 @@
       </c>
     </row>
     <row r="141" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="126"/>
+      <c r="A141" t="s">
+        <v>826</v>
+      </c>
       <c r="B141" s="143" t="s">
         <v>376</v>
       </c>
@@ -26211,7 +26915,9 @@
       </c>
     </row>
     <row r="142" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="126"/>
+      <c r="A142" t="s">
+        <v>827</v>
+      </c>
       <c r="B142" s="143" t="s">
         <v>377</v>
       </c>
@@ -26349,7 +27055,9 @@
       </c>
     </row>
     <row r="143" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="126"/>
+      <c r="A143" t="s">
+        <v>828</v>
+      </c>
       <c r="B143" s="143" t="s">
         <v>378</v>
       </c>
@@ -26487,7 +27195,9 @@
       </c>
     </row>
     <row r="144" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="126"/>
+      <c r="A144" t="s">
+        <v>829</v>
+      </c>
       <c r="B144" s="143" t="s">
         <v>379</v>
       </c>
@@ -30231,7 +30941,7 @@
       <formula>#REF!="Click the button to Start your Property mapping ---&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:P1 B3:B144 D3:G144 I3:K144 B145:P1048576 L2:P144">
+  <conditionalFormatting sqref="M1:P1 L2:P144 B3:B144 D3:G144 I3:K144 B145:P1048576">
     <cfRule type="expression" dxfId="57" priority="37">
       <formula>#REF!="Click the button to Start your Property mapping ---&gt;"</formula>
     </cfRule>
@@ -30256,27 +30966,27 @@
       <formula>#REF!="Click the button to Start your Property mapping ---&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD4:AE144 AH4:AS144 AD1:AS3">
+  <conditionalFormatting sqref="AD1:AS3 AD4:AE144 AH4:AS144">
     <cfRule type="expression" dxfId="52" priority="7">
       <formula>#REF!="Click the button to Start your Property mapping ---&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF4:AG42">
-    <cfRule type="expression" dxfId="51" priority="23">
-      <formula>#REF!="Click the button to Start your Property mapping ---&gt;"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AF1:AG42">
-    <cfRule type="expression" dxfId="50" priority="25">
+    <cfRule type="expression" dxfId="51" priority="25">
       <formula>SEARCH("No Front Desk",#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="27">
+    <cfRule type="expression" dxfId="50" priority="27">
       <formula>AND(#REF!="",#REF!="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF3:AG42">
-    <cfRule type="expression" dxfId="48" priority="24">
+    <cfRule type="expression" dxfId="49" priority="24">
       <formula>SEARCH("24h Front Desk",#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF4:AG42">
+    <cfRule type="expression" dxfId="48" priority="23">
+      <formula>#REF!="Click the button to Start your Property mapping ---&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO1:AO144">
@@ -30325,14 +31035,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF1">
-    <cfRule type="expression" dxfId="38" priority="15">
+    <cfRule type="expression" dxfId="38" priority="16">
+      <formula>AND(#REF!="",#REF!="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="15">
       <formula>#REF!="Click the button to Start your Property mapping ---&gt;"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="16">
-      <formula>AND(#REF!="",#REF!="")</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BG1:BH1 BG3:BH144">
+  <conditionalFormatting sqref="BG3:BH144 BG1:BH1">
     <cfRule type="expression" dxfId="36" priority="12">
       <formula>#REF!="Click the button to start next step ---&gt;"</formula>
     </cfRule>
@@ -36349,18 +37059,18 @@
       <formula>#REF!="Click the button to Start your Property mapping ---&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C1:J2 L1:N2">
+    <cfRule type="expression" dxfId="33" priority="131">
+      <formula>#REF!="Click the button to start next step ---&gt;"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="expression" dxfId="33" priority="166">
+    <cfRule type="expression" dxfId="32" priority="166">
       <formula>AND(#REF!="",#REF!="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K2">
-    <cfRule type="expression" dxfId="32" priority="173">
-      <formula>#REF!="Click the button to start next step ---&gt;"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:N2 C1:J2">
-    <cfRule type="expression" dxfId="31" priority="131">
+    <cfRule type="expression" dxfId="31" priority="173">
       <formula>#REF!="Click the button to start next step ---&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36657,11 +37367,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B8">
-    <cfRule type="containsText" dxfId="28" priority="50" operator="containsText" text="Click and choose from list">
+    <cfRule type="containsText" dxfId="28" priority="51" operator="containsText" text="Answer here">
+      <formula>NOT(ISERROR(SEARCH("Answer here",B4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="50" operator="containsText" text="Click and choose from list">
       <formula>NOT(ISERROR(SEARCH("Click and choose from list",B4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="51" operator="containsText" text="Answer here">
-      <formula>NOT(ISERROR(SEARCH("Answer here",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
@@ -36670,11 +37380,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:I8">
-    <cfRule type="containsText" dxfId="25" priority="48" operator="containsText" text="Click and Choose from list">
+    <cfRule type="containsText" dxfId="25" priority="49" operator="containsText" text="Answer here">
+      <formula>NOT(ISERROR(SEARCH("Answer here",B4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="48" operator="containsText" text="Click and Choose from list">
       <formula>NOT(ISERROR(SEARCH("Click and Choose from list",B4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="49" operator="containsText" text="Answer here">
-      <formula>NOT(ISERROR(SEARCH("Answer here",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:E8 F5:I5">
